--- a/update.xlsx
+++ b/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Work</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>GitHub Account</t>
   </si>
   <si>
@@ -43,6 +40,15 @@
   </si>
   <si>
     <t>Have done a complete setup of the Maven Project using JPA,WEB,MYSQL,DevTools and uploaded it to the Github</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Created and Insertion</t>
+  </si>
+  <si>
+    <t>Created a table successfully using Spring Boot and Inserting the data in the database and checked using Postman</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,7 +407,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -409,10 +415,10 @@
         <v>43491</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,10 +426,10 @@
         <v>43492</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -431,10 +437,21 @@
         <v>43494</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/update.xlsx
+++ b/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -45,10 +45,16 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Created and Insertion</t>
-  </si>
-  <si>
     <t>Created a table successfully using Spring Boot and Inserting the data in the database and checked using Postman</t>
+  </si>
+  <si>
+    <t>Creation and Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Initialized delete Operation Successfully</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,10 +454,21 @@
         <v>43496</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/update.xlsx
+++ b/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Initialized delete Operation Successfully</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Initialized update Operation Successfully</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,6 +477,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>43652</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
